--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_33.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_33.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD99015-1632-7B43-9E79-27BF3FE89A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F188B-81B3-CE41-8AE5-8F7FAF3A1F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{5C5C2950-FF53-ED43-A2F9-D9728485BF6A}"/>
   </bookViews>
@@ -216,9 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,13 +536,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E097306-DC24-1A4D-933A-315AC54C5F5B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" customWidth="1"/>
+    <col min="11" max="11" width="2.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -584,16 +606,16 @@
       <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -640,13 +662,13 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -693,13 +715,13 @@
       <c r="N3">
         <v>2</v>
       </c>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="O3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -746,13 +768,13 @@
       <c r="N4">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="O4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -799,13 +821,13 @@
       <c r="N5">
         <v>4</v>
       </c>
-      <c r="O5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="O5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -849,13 +871,13 @@
       <c r="M6" s="1">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="P6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -902,13 +924,13 @@
       <c r="N7">
         <v>2</v>
       </c>
-      <c r="O7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="O7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -955,17 +977,18 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="O8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>